--- a/SES/SES/ExportTemplate/KhachHang.xlsx
+++ b/SES/SES/ExportTemplate/KhachHang.xlsx
@@ -1,41 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="TinhThanh" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="QuanHuyen" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="PhuongXa" sheetId="5" state="hidden" r:id="rId4"/>
-    <sheet name="Active" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="LoaiKhachHang" sheetId="6" state="hidden" r:id="rId6"/>
-    <sheet name="Kenh" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="NhanVienDangKy" sheetId="8" state="hidden" r:id="rId8"/>
+    <sheet name="Active" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$H$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$O$1</definedName>
     <definedName name="Active">OFFSET(Active!$A$1,1,0,COUNTA(Active!$A:$A)-1,1)</definedName>
-    <definedName name="Kenh">OFFSET(Kenh!$A$1,1,0,COUNTA(Kenh!$A:$A)-1,1)</definedName>
-    <definedName name="LoaiKhachHang">OFFSET(LoaiKhachHang!$A$1,1,0,COUNTA(LoaiKhachHang!$A:$A)-1,1)</definedName>
-    <definedName name="NhanVienDangKy">OFFSET(NhanVienDangKy!$A$1,1,0,COUNTA(NhanVienDangKy!$A:$A)-1,1)</definedName>
-    <definedName name="PhuongXa">OFFSET(PhuongXa!$A$1,1,0,COUNTA(PhuongXa!$A:$A)-1,1)</definedName>
-    <definedName name="QuanHuyen">OFFSET(QuanHuyen!$A$1,1,0,COUNTA(QuanHuyen!$A:$A)-1,1)</definedName>
-    <definedName name="TinhThanh">OFFSET(TinhThanh!$A$1,1,0,COUNTA(TinhThanh!$A:$A)-1,1)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Active</t>
   </si>
   <si>
+    <t>Đang hoạt động</t>
+  </si>
+  <si>
+    <t>Ngưng hoạt động</t>
+  </si>
+  <si>
     <t>Ghi chú</t>
   </si>
   <si>
@@ -45,99 +39,56 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Điện thoại</t>
-  </si>
-  <si>
-    <t>Phường xã</t>
-  </si>
-  <si>
-    <t>Đường</t>
-  </si>
-  <si>
-    <t>Người liên hệ</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Province</t>
-  </si>
-  <si>
-    <t>District</t>
-  </si>
-  <si>
-    <t>Ward</t>
-  </si>
-  <si>
-    <t>Tên khách hàng (*)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã khách hàng </t>
-  </si>
-  <si>
-    <t>Tỉnh thành (*)</t>
-  </si>
-  <si>
-    <t>Quận huyện (*)</t>
-  </si>
-  <si>
-    <t>Loại khách hàng (*)</t>
-  </si>
-  <si>
-    <t>Kênh (*)</t>
-  </si>
-  <si>
-    <t>Ghi chú chương trình</t>
-  </si>
-  <si>
-    <t>OutletType</t>
-  </si>
-  <si>
-    <t>DistributorType</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
     <t>[Lỗi]</t>
   </si>
   <si>
-    <t>Nhà phân phối</t>
-  </si>
-  <si>
-    <t>RegBySalesmanName</t>
-  </si>
-  <si>
-    <t>Nhân viên đăng ký</t>
+    <t>Mã KH</t>
+  </si>
+  <si>
+    <t>Tên KH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người đại diện </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Địa chỉ </t>
+  </si>
+  <si>
+    <t>Số Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngày thành lập </t>
+  </si>
+  <si>
+    <t>Mã Tỉnh</t>
+  </si>
+  <si>
+    <t>Mã Huyện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người tạo </t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t>Người cập nhật</t>
+  </si>
+  <si>
+    <t>Ngày cập nhật</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -166,13 +117,6 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -216,48 +160,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -332,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,9 +295,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,6 +330,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -573,117 +506,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="11" customWidth="1"/>
-    <col min="3" max="4" width="13.7109375" style="12" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="11" customWidth="1"/>
-    <col min="7" max="16" width="13.7109375" style="12" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="15" width="13.7109375" style="8" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="25.5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="I1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="M1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="P2" s="11"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="L3" s="13"/>
     </row>
   </sheetData>
-  <dataConsolidate/>
-  <conditionalFormatting sqref="R3:R1048576 Q2 R1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(Q1))&gt;0</formula>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+      <formula>LEN(TRIM(P1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576">
       <formula1>Active</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>TinhThanh</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576">
-      <formula1>QuanHuyen</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576">
-      <formula1>PhuongXa</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
-      <formula1>LoaiKhachHang</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>Kenh</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
-      <formula1>NhanVienDangKy</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -692,148 +587,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>